--- a/Descargas/R15_7º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Julio.xlsx
+++ b/Descargas/R15_7º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Julio.xlsx
@@ -387,7 +387,7 @@
     <row r="19">
       <c t="inlineStr" r="A19">
         <is>
-          <t xml:space="preserve">Asociaciones Ilicitas.</t>
+          <t xml:space="preserve">Arrojamiento De Piedras U Otros Objetos (496 Nr26 Codigo Pen</t>
         </is>
       </c>
       <c r="B19" s="65">
@@ -397,7 +397,7 @@
     <row r="20">
       <c t="inlineStr" r="A20">
         <is>
-          <t xml:space="preserve">Atentado A Vehiculo Motorizado En Circulacion Con Objeto Con</t>
+          <t xml:space="preserve">Asociaciones Ilicitas.</t>
         </is>
       </c>
       <c r="B20" s="65">
@@ -407,27 +407,27 @@
     <row r="21">
       <c t="inlineStr" r="A21">
         <is>
-          <t xml:space="preserve">Calumnia (Accion Privada).</t>
+          <t xml:space="preserve">Atentado A Vehiculo Motorizado En Circulacion Con Objeto Con</t>
         </is>
       </c>
       <c r="B21" s="65">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c t="inlineStr" r="A22">
         <is>
-          <t xml:space="preserve">Castracion Y Mutilacion.</t>
+          <t xml:space="preserve">Calumnia (Accion Privada).</t>
         </is>
       </c>
       <c r="B22" s="65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c t="inlineStr" r="A23">
         <is>
-          <t xml:space="preserve">Celebración De Contrato Simulado.</t>
+          <t xml:space="preserve">Castracion Y Mutilacion.</t>
         </is>
       </c>
       <c r="B23" s="65">
@@ -437,7 +437,7 @@
     <row r="24">
       <c t="inlineStr" r="A24">
         <is>
-          <t xml:space="preserve">Cohecho Cometido Por Empleado Público.art.248,248 Bis Y 249.</t>
+          <t xml:space="preserve">Celebración De Contrato Simulado.</t>
         </is>
       </c>
       <c r="B24" s="65">
@@ -447,27 +447,27 @@
     <row r="25">
       <c t="inlineStr" r="A25">
         <is>
-          <t xml:space="preserve">Cohecho O Soborno Cometido Por Particular. Art. 250</t>
+          <t xml:space="preserve">Cohecho Cometido Por Empleado Público.art.248,248 Bis Y 249.</t>
         </is>
       </c>
       <c r="B25" s="65">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c t="inlineStr" r="A26">
         <is>
-          <t xml:space="preserve">Conduc.ebriedad Resul.lesiones Menos Grave.a196 I.2Ley.trans</t>
+          <t xml:space="preserve">Cohecho O Soborno Cometido Por Particular. Art. 250</t>
         </is>
       </c>
       <c r="B26" s="65">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
       <c t="inlineStr" r="A27">
         <is>
-          <t xml:space="preserve">Conduc.ebriedad Susp.lic. Art.196Y209 Inc.2 Ley.transito.</t>
+          <t xml:space="preserve">Conduc.ebriedad Resul.lesiones Menos Grave.a196 I.2Ley.trans</t>
         </is>
       </c>
       <c r="B27" s="65">
@@ -477,227 +477,227 @@
     <row r="28">
       <c t="inlineStr" r="A28">
         <is>
-          <t xml:space="preserve">Conduc.estado De Ebriedad Con O Sin Daños O Lesiones Leves.</t>
+          <t xml:space="preserve">Conduc.ebriedad Susp.lic. Art.196Y209 Inc.2 Ley.transito.</t>
         </is>
       </c>
       <c r="B28" s="65">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c t="inlineStr" r="A29">
         <is>
-          <t xml:space="preserve">Conduc.sin La Licencia Debida Art 194 Ley De Transito.</t>
+          <t xml:space="preserve">Conduc.estado De Ebriedad Con O Sin Daños O Lesiones Leves.</t>
         </is>
       </c>
       <c r="B29" s="65">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c t="inlineStr" r="A30">
         <is>
-          <t xml:space="preserve">Consumo/Porte De Drogas En Lugares Calificados (Art. 51).</t>
+          <t xml:space="preserve">Conduc.sin La Licencia Debida Art 194 Ley De Transito.</t>
         </is>
       </c>
       <c r="B30" s="65">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c t="inlineStr" r="A31">
         <is>
-          <t xml:space="preserve">Consumo/Porte En Lug.pub.o Priv.c/Previo Concierto(Art.50).</t>
+          <t xml:space="preserve">Consumo/Porte De Drogas En Lugares Calificados (Art. 51).</t>
         </is>
       </c>
       <c r="B31" s="65">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
       <c t="inlineStr" r="A32">
         <is>
-          <t xml:space="preserve">Contra Salud Publica.</t>
+          <t xml:space="preserve">Consumo/Porte En Lug.pub.o Priv.c/Previo Concierto(Art.50).</t>
         </is>
       </c>
       <c r="B32" s="65">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
       <c t="inlineStr" r="A33">
         <is>
-          <t xml:space="preserve">Contra Salud Publica. Arts. 313 A Y 313 B</t>
+          <t xml:space="preserve">Contra Salud Publica.</t>
         </is>
       </c>
       <c r="B33" s="65">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34">
       <c t="inlineStr" r="A34">
         <is>
-          <t xml:space="preserve">Contra Salud Pública.  Arts. 313 D Al 315 Y Art. 317.</t>
+          <t xml:space="preserve">Contra Salud Publica. Arts. 313 A Y 313 B</t>
         </is>
       </c>
       <c r="B34" s="65">
-        <v>2018</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c t="inlineStr" r="A35">
         <is>
-          <t xml:space="preserve">Contrab. Infrac A La Ord. De Aduan Art 168. Ley 20.780</t>
+          <t xml:space="preserve">Contra Salud Pública.  Arts. 313 D Al 315 Y Art. 317.</t>
         </is>
       </c>
       <c r="B35" s="65">
-        <v>5</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="36">
       <c t="inlineStr" r="A36">
         <is>
-          <t xml:space="preserve">Corte/Destr. Arbol/Arbusto. Reg.art.21 4363,1931Y Ley Bosque</t>
+          <t xml:space="preserve">Contrab. Infrac A La Ord. De Aduan Art 168. Ley 20.780</t>
         </is>
       </c>
       <c r="B36" s="65">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
       <c t="inlineStr" r="A37">
         <is>
-          <t xml:space="preserve">Crimenes Lesa Humanidad Y Genocidio Ley 20.357.</t>
+          <t xml:space="preserve">Corte/Destr. Arbol/Arbusto. Reg.art.21 4363,1931Y Ley Bosque</t>
         </is>
       </c>
       <c r="B37" s="65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
       <c t="inlineStr" r="A38">
         <is>
-          <t xml:space="preserve">Cuasidelito De Homicidio.</t>
+          <t xml:space="preserve">Crimenes Lesa Humanidad Y Genocidio Ley 20.357.</t>
         </is>
       </c>
       <c r="B38" s="65">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c t="inlineStr" r="A39">
         <is>
-          <t xml:space="preserve">Cuasidelito De Lesiones Cometidos Por Profesionales De La Sa</t>
+          <t xml:space="preserve">Cuasidelito De Homicidio.</t>
         </is>
       </c>
       <c r="B39" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
       <c t="inlineStr" r="A40">
         <is>
-          <t xml:space="preserve">Cuasidelito De Lesiones: Art 490, 491 Inc 2° Y 492.</t>
+          <t xml:space="preserve">Cuasidelito De Lesiones Cometidos Por Profesionales De La Sa</t>
         </is>
       </c>
       <c r="B40" s="65">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c t="inlineStr" r="A41">
         <is>
-          <t xml:space="preserve">Cuasidelito Vehiculo Motorizado Ley Transito</t>
+          <t xml:space="preserve">Cuasidelito De Lesiones: Art 490, 491 Inc 2° Y 492.</t>
         </is>
       </c>
       <c r="B41" s="65">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c t="inlineStr" r="A42">
         <is>
-          <t xml:space="preserve">Daño Falta (495 Nr 21 Codigo Penal).</t>
+          <t xml:space="preserve">Cuasidelito Vehiculo Motorizado Ley Transito</t>
         </is>
       </c>
       <c r="B42" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c t="inlineStr" r="A43">
         <is>
-          <t xml:space="preserve">Daños Calificados.</t>
+          <t xml:space="preserve">Daño Falta (495 Nr 21 Codigo Penal).</t>
         </is>
       </c>
       <c r="B43" s="65">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c t="inlineStr" r="A44">
         <is>
-          <t xml:space="preserve">Daños Simples.</t>
+          <t xml:space="preserve">Daños Calificados.</t>
         </is>
       </c>
       <c r="B44" s="65">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
       <c t="inlineStr" r="A45">
         <is>
-          <t xml:space="preserve">Dejar Animales Sueltos (496 Nr 17 Codigo Penal).</t>
+          <t xml:space="preserve">Daños Simples.</t>
         </is>
       </c>
       <c r="B45" s="65">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
       <c t="inlineStr" r="A46">
         <is>
-          <t xml:space="preserve">Delito Desordenes Publicos Art. 269 (No Falta Del Codigo 130</t>
+          <t xml:space="preserve">Dejar Animales Sueltos (496 Nr 17 Codigo Penal).</t>
         </is>
       </c>
       <c r="B46" s="65">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c t="inlineStr" r="A47">
         <is>
-          <t xml:space="preserve">Delitos Contra La Vida Y La Privacidad De Las Conversaciones</t>
+          <t xml:space="preserve">Delito Desordenes Publicos Art. 269 (No Falta Del Codigo 130</t>
         </is>
       </c>
       <c r="B47" s="65">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
       <c t="inlineStr" r="A48">
         <is>
-          <t xml:space="preserve">Desacato (Art. 240 Codigo De Procedimiento Civil).</t>
+          <t xml:space="preserve">Delitos Contra La Vida Y La Privacidad De Las Conversaciones</t>
         </is>
       </c>
       <c r="B48" s="65">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c t="inlineStr" r="A49">
         <is>
-          <t xml:space="preserve">Desordenes En Espectáculos Públicos (494 Nº 1 Código Penal).</t>
+          <t xml:space="preserve">Desacato (Art. 240 Codigo De Procedimiento Civil).</t>
         </is>
       </c>
       <c r="B49" s="65">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50">
       <c t="inlineStr" r="A50">
         <is>
-          <t xml:space="preserve">Empleador Que Ordena Infringir Cuarentena</t>
+          <t xml:space="preserve">Desordenes En Espectáculos Públicos (494 Nº 1 Código Penal).</t>
         </is>
       </c>
       <c r="B50" s="65">
@@ -707,37 +707,37 @@
     <row r="51">
       <c t="inlineStr" r="A51">
         <is>
-          <t xml:space="preserve">Espionaje Informatico Art. 2 Y 4 Ley 19223.</t>
+          <t xml:space="preserve">Empleador Que Ordena Infringir Cuarentena</t>
         </is>
       </c>
       <c r="B51" s="65">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c t="inlineStr" r="A52">
         <is>
-          <t xml:space="preserve">Estafas Y Otras Defraudaciones Contra Particulares</t>
+          <t xml:space="preserve">Espionaje Informatico Art. 2 Y 4 Ley 19223.</t>
         </is>
       </c>
       <c r="B52" s="65">
-        <v>90</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
       <c t="inlineStr" r="A53">
         <is>
-          <t xml:space="preserve">Exacciones Ilegales Cometidas Por Funcionario Público.</t>
+          <t xml:space="preserve">Estafas Y Otras Defraudaciones Contra Particulares</t>
         </is>
       </c>
       <c r="B53" s="65">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54">
       <c t="inlineStr" r="A54">
         <is>
-          <t xml:space="preserve">Falsa Alarma De Incendio, Emergencia O Calamidad Pública</t>
+          <t xml:space="preserve">Exacciones Ilegales Cometidas Por Funcionario Público.</t>
         </is>
       </c>
       <c r="B54" s="65">
@@ -747,7 +747,7 @@
     <row r="55">
       <c t="inlineStr" r="A55">
         <is>
-          <t xml:space="preserve">Falsificacion Licencia De Conducir Y Otras Falsificaciones.</t>
+          <t xml:space="preserve">Falsa Alarma De Incendio, Emergencia O Calamidad Pública</t>
         </is>
       </c>
       <c r="B55" s="65">
@@ -757,67 +757,67 @@
     <row r="56">
       <c t="inlineStr" r="A56">
         <is>
-          <t xml:space="preserve">Falsificacion O Uso Malicioso De Documentos Privados.</t>
+          <t xml:space="preserve">Falsificacion Licencia De Conducir Y Otras Falsificaciones.</t>
         </is>
       </c>
       <c r="B56" s="65">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c t="inlineStr" r="A57">
         <is>
-          <t xml:space="preserve">Falsificacion O Uso Maliciosos De Documentos Publicos.</t>
+          <t xml:space="preserve">Falsificacion O Uso Malicioso De Documentos Privados.</t>
         </is>
       </c>
       <c r="B57" s="65">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
       <c t="inlineStr" r="A58">
         <is>
-          <t xml:space="preserve">Falsotestimonio, Perjurio O Denuncia Calumniosa.art. 206,.</t>
+          <t xml:space="preserve">Falsificacion O Uso Maliciosos De Documentos Publicos.</t>
         </is>
       </c>
       <c r="B58" s="65">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
       <c t="inlineStr" r="A59">
         <is>
-          <t xml:space="preserve">Falta De Respeto A Autoridad Pública (495 Nº 4 Código Penal)</t>
+          <t xml:space="preserve">Falsotestimonio, Perjurio O Denuncia Calumniosa.art. 206,.</t>
         </is>
       </c>
       <c r="B59" s="65">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
       <c t="inlineStr" r="A60">
         <is>
-          <t xml:space="preserve">Faltas Al Regimen Penitenciario</t>
+          <t xml:space="preserve">Falta De Respeto A Autoridad Pública (495 Nº 4 Código Penal)</t>
         </is>
       </c>
       <c r="B60" s="65">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c t="inlineStr" r="A61">
         <is>
-          <t xml:space="preserve">Femicidio Intimo Art. 390 Bis</t>
+          <t xml:space="preserve">Faltas Al Regimen Penitenciario</t>
         </is>
       </c>
       <c r="B61" s="65">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62">
       <c t="inlineStr" r="A62">
         <is>
-          <t xml:space="preserve">Fraudes Al Fisco Y Organismos Del Estado (Art. 239).</t>
+          <t xml:space="preserve">Femicidio Intimo Art. 390 Bis</t>
         </is>
       </c>
       <c r="B62" s="65">
@@ -827,7 +827,7 @@
     <row r="63">
       <c t="inlineStr" r="A63">
         <is>
-          <t xml:space="preserve">Giro Dol Cheq (Fal Fond) Ac. Penal Priv. Art. 22. Dfl 707</t>
+          <t xml:space="preserve">Fraudes Al Fisco Y Organismos Del Estado (Art. 239).</t>
         </is>
       </c>
       <c r="B63" s="65">
@@ -837,7 +837,7 @@
     <row r="64">
       <c t="inlineStr" r="A64">
         <is>
-          <t xml:space="preserve">Giro Dol Cheq. (Cuent Cerr) Ac. Penal Priv Art. 22. Dfl 707</t>
+          <t xml:space="preserve">Giro Dol Cheq (Fal Fond) Ac. Penal Priv. Art. 22. Dfl 707</t>
         </is>
       </c>
       <c r="B64" s="65">
@@ -847,27 +847,27 @@
     <row r="65">
       <c t="inlineStr" r="A65">
         <is>
-          <t xml:space="preserve">Giro Doloso De Cheques  Ac. Penal Püblica Art. 42. Dfl 707</t>
+          <t xml:space="preserve">Giro Dol Cheq. (Cuent Cerr) Ac. Penal Priv Art. 22. Dfl 707</t>
         </is>
       </c>
       <c r="B65" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c t="inlineStr" r="A66">
         <is>
-          <t xml:space="preserve">Homicidio Calificado.</t>
+          <t xml:space="preserve">Giro Doloso De Cheques  Ac. Penal Püblica Art. 42. Dfl 707</t>
         </is>
       </c>
       <c r="B66" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c t="inlineStr" r="A67">
         <is>
-          <t xml:space="preserve">Homicidio En Riña O Pelea.</t>
+          <t xml:space="preserve">Homicidio Calificado.</t>
         </is>
       </c>
       <c r="B67" s="65">
@@ -877,87 +877,87 @@
     <row r="68">
       <c t="inlineStr" r="A68">
         <is>
-          <t xml:space="preserve">Homicidio.</t>
+          <t xml:space="preserve">Homicidio En Riña O Pelea.</t>
         </is>
       </c>
       <c r="B68" s="65">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c t="inlineStr" r="A69">
         <is>
-          <t xml:space="preserve">Hurto Agravado (Art. 447 Codigo Penal).</t>
+          <t xml:space="preserve">Homicidio.</t>
         </is>
       </c>
       <c r="B69" s="65">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
       <c t="inlineStr" r="A70">
         <is>
-          <t xml:space="preserve">Hurto De Hallazgo.</t>
+          <t xml:space="preserve">Hurto Agravado (Art. 447 Codigo Penal).</t>
         </is>
       </c>
       <c r="B70" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c t="inlineStr" r="A71">
         <is>
-          <t xml:space="preserve">Hurto Falta (494 Bis Codigo Penal).</t>
+          <t xml:space="preserve">Hurto De Hallazgo.</t>
         </is>
       </c>
       <c r="B71" s="65">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c t="inlineStr" r="A72">
         <is>
-          <t xml:space="preserve">Hurto Simple Por Un Valor De 4 A 40 Utm.</t>
+          <t xml:space="preserve">Hurto Falta (494 Bis Codigo Penal).</t>
         </is>
       </c>
       <c r="B72" s="65">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73">
       <c t="inlineStr" r="A73">
         <is>
-          <t xml:space="preserve">Hurto Simple Por Un Valor De Media A Menos De 4 Utm.</t>
+          <t xml:space="preserve">Hurto Simple Por Un Valor De 4 A 40 Utm.</t>
         </is>
       </c>
       <c r="B73" s="65">
-        <v>37</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74">
       <c t="inlineStr" r="A74">
         <is>
-          <t xml:space="preserve">Hurto Simple Por Un Valor Sobre 40 Utm.</t>
+          <t xml:space="preserve">Hurto Simple Por Un Valor De Media A Menos De 4 Utm.</t>
         </is>
       </c>
       <c r="B74" s="65">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75">
       <c t="inlineStr" r="A75">
         <is>
-          <t xml:space="preserve">Incendio Solo C/Daños O Sin Peligro Propagacion.art.477,478.</t>
+          <t xml:space="preserve">Hurto Simple Por Un Valor Sobre 40 Utm.</t>
         </is>
       </c>
       <c r="B75" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
       <c t="inlineStr" r="A76">
         <is>
-          <t xml:space="preserve">Infraccion En El Otorgamiento Prestaciones De Isapre (Art.23</t>
+          <t xml:space="preserve">Incendio Solo C/Daños O Sin Peligro Propagacion.art.477,478.</t>
         </is>
       </c>
       <c r="B76" s="65">
@@ -967,107 +967,107 @@
     <row r="77">
       <c t="inlineStr" r="A77">
         <is>
-          <t xml:space="preserve">Infringir Normas Higiénicas Y De Salubridad</t>
+          <t xml:space="preserve">Infraccion En El Otorgamiento Prestaciones De Isapre (Art.23</t>
         </is>
       </c>
       <c r="B77" s="65">
-        <v>414</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c t="inlineStr" r="A78">
         <is>
-          <t xml:space="preserve">Injuria (Accion Privada).</t>
+          <t xml:space="preserve">Infringir Normas Higiénicas Y De Salubridad</t>
         </is>
       </c>
       <c r="B78" s="65">
-        <v>3</v>
+        <v>414</v>
       </c>
     </row>
     <row r="79">
       <c t="inlineStr" r="A79">
         <is>
-          <t xml:space="preserve">Injurias Y Calumnias Por Medios De Comunicacion Social.</t>
+          <t xml:space="preserve">Injuria (Accion Privada).</t>
         </is>
       </c>
       <c r="B79" s="65">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
       <c t="inlineStr" r="A80">
         <is>
-          <t xml:space="preserve">Interrumpir Libre Circulación (Ley 21208 Inc 1)</t>
+          <t xml:space="preserve">Injurias Y Calumnias Por Medios De Comunicacion Social.</t>
         </is>
       </c>
       <c r="B80" s="65">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
       <c t="inlineStr" r="A81">
         <is>
-          <t xml:space="preserve">Lesiones Graves Gravisimas. Art. 397 Nº 1.</t>
+          <t xml:space="preserve">Interrumpir Libre Circulación (Ley 21208 Inc 1)</t>
         </is>
       </c>
       <c r="B81" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c t="inlineStr" r="A82">
         <is>
-          <t xml:space="preserve">Lesiones Graves.</t>
+          <t xml:space="preserve">Lesiones Graves Gravisimas. Art. 397 Nº 1.</t>
         </is>
       </c>
       <c r="B82" s="65">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
       <c t="inlineStr" r="A83">
         <is>
-          <t xml:space="preserve">Lesiones Leves.</t>
+          <t xml:space="preserve">Lesiones Graves.</t>
         </is>
       </c>
       <c r="B83" s="65">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84">
       <c t="inlineStr" r="A84">
         <is>
-          <t xml:space="preserve">Lesiones Menos Graves.</t>
+          <t xml:space="preserve">Lesiones Leves.</t>
         </is>
       </c>
       <c r="B84" s="65">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85">
       <c t="inlineStr" r="A85">
         <is>
-          <t xml:space="preserve">Maltrato Corp. Menor. O Personas Vul.  Art. 403 Bis Inc. 1°.</t>
+          <t xml:space="preserve">Lesiones Menos Graves.</t>
         </is>
       </c>
       <c r="B85" s="65">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86">
       <c t="inlineStr" r="A86">
         <is>
-          <t xml:space="preserve">Maltrato De Obra A Gendarme En El Desempeño De Sus Funciones</t>
+          <t xml:space="preserve">Maltrato Corp. Menor. O Personas Vul.  Art. 403 Bis Inc. 1°.</t>
         </is>
       </c>
       <c r="B86" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
       <c t="inlineStr" r="A87">
         <is>
-          <t xml:space="preserve">Maltrato De Obra Personal Investigaciones Con O Sin Lesiones</t>
+          <t xml:space="preserve">Maltrato De Obra A Gendarme En El Desempeño De Sus Funciones</t>
         </is>
       </c>
       <c r="B87" s="65">
@@ -1077,37 +1077,37 @@
     <row r="88">
       <c t="inlineStr" r="A88">
         <is>
-          <t xml:space="preserve">Maltrato Habitual(Violencia Intrafamiliar) (Art. 14).</t>
+          <t xml:space="preserve">Maltrato De Obra Personal Investigaciones Con O Sin Lesiones</t>
         </is>
       </c>
       <c r="B88" s="65">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c t="inlineStr" r="A89">
         <is>
-          <t xml:space="preserve">Maltrato Obra A Carabineros Art. 416 Bis Codigo Just.militar</t>
+          <t xml:space="preserve">Maltrato Habitual(Violencia Intrafamiliar) (Art. 14).</t>
         </is>
       </c>
       <c r="B89" s="65">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90">
       <c t="inlineStr" r="A90">
         <is>
-          <t xml:space="preserve">Malversacion De Caudales Publicos.</t>
+          <t xml:space="preserve">Maltrato Obra A Carabineros Art. 416 Bis Codigo Just.militar</t>
         </is>
       </c>
       <c r="B90" s="65">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91">
       <c t="inlineStr" r="A91">
         <is>
-          <t xml:space="preserve">March Sit  Suc Sin Prest Aux Víctima. Art 195 Inc 2° Y 3°</t>
+          <t xml:space="preserve">Malversacion De Caudales Publicos.</t>
         </is>
       </c>
       <c r="B91" s="65">
@@ -1117,17 +1117,17 @@
     <row r="92">
       <c t="inlineStr" r="A92">
         <is>
-          <t xml:space="preserve">Negociacion Incompatible.</t>
+          <t xml:space="preserve">March Sit  Suc Sin Prest Aux Víctima. Art 195 Inc 2° Y 3°</t>
         </is>
       </c>
       <c r="B92" s="65">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c t="inlineStr" r="A93">
         <is>
-          <t xml:space="preserve">Ocult Ident En Control Prevent Art 496 N: 5 Y 12 Ley 20931</t>
+          <t xml:space="preserve">Negociacion Incompatible.</t>
         </is>
       </c>
       <c r="B93" s="65">
@@ -1137,7 +1137,7 @@
     <row r="94">
       <c t="inlineStr" r="A94">
         <is>
-          <t xml:space="preserve">Ocultacion De Ident En Control Invest Art 496 N05 Art 85 Cpp</t>
+          <t xml:space="preserve">Ocult Ident En Control Prevent Art 496 N: 5 Y 12 Ley 20931</t>
         </is>
       </c>
       <c r="B94" s="65">
@@ -1147,77 +1147,77 @@
     <row r="95">
       <c t="inlineStr" r="A95">
         <is>
-          <t xml:space="preserve">Ocultacion De Identidad (496 Nr 5 Codigo Penal).</t>
+          <t xml:space="preserve">Ocultacion De Ident En Control Invest Art 496 N05 Art 85 Cpp</t>
         </is>
       </c>
       <c r="B95" s="65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
       <c t="inlineStr" r="A96">
         <is>
-          <t xml:space="preserve">Ocultamiento De Placa Patente (Art. 192 Letra E)</t>
+          <t xml:space="preserve">Ocultacion De Identidad (496 Nr 5 Codigo Penal).</t>
         </is>
       </c>
       <c r="B96" s="65">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
       <c t="inlineStr" r="A97">
         <is>
-          <t xml:space="preserve">Oponerse A La Accion De La Autoridad Publica O Sus Agentes.</t>
+          <t xml:space="preserve">Ocultamiento De Placa Patente (Art. 192 Letra E)</t>
         </is>
       </c>
       <c r="B97" s="65">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98">
       <c t="inlineStr" r="A98">
         <is>
-          <t xml:space="preserve">Otras Faltas Codigo Penal.</t>
+          <t xml:space="preserve">Oponerse A La Accion De La Autoridad Publica O Sus Agentes.</t>
         </is>
       </c>
       <c r="B98" s="65">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
       <c t="inlineStr" r="A99">
         <is>
-          <t xml:space="preserve">Otras Infracciones Al Csdigo De Justicia Militar.</t>
+          <t xml:space="preserve">Otras Faltas Codigo Penal.</t>
         </is>
       </c>
       <c r="B99" s="65">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100">
       <c t="inlineStr" r="A100">
         <is>
-          <t xml:space="preserve">Otros Delit Comet. Por Emp. Públic.en El Desem De Sus Cargos</t>
+          <t xml:space="preserve">Otras Infracciones Al Csdigo De Justicia Militar.</t>
         </is>
       </c>
       <c r="B100" s="65">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101">
       <c t="inlineStr" r="A101">
         <is>
-          <t xml:space="preserve">Otros Delitos Contra La Ley De Propiedad Intelectual.</t>
+          <t xml:space="preserve">Otros Delit Comet. Por Emp. Públic.en El Desem De Sus Cargos</t>
         </is>
       </c>
       <c r="B101" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
       <c t="inlineStr" r="A102">
         <is>
-          <t xml:space="preserve">Otros Delitos Contra La Ley Del Transito.</t>
+          <t xml:space="preserve">Otros Delitos Contra La Ley De Propiedad Intelectual.</t>
         </is>
       </c>
       <c r="B102" s="65">
@@ -1227,7 +1227,7 @@
     <row r="103">
       <c t="inlineStr" r="A103">
         <is>
-          <t xml:space="preserve">Otros Delitos Contra Las Personas</t>
+          <t xml:space="preserve">Otros Delitos Contra La Ley Del Transito.</t>
         </is>
       </c>
       <c r="B103" s="65">
@@ -1237,37 +1237,37 @@
     <row r="104">
       <c t="inlineStr" r="A104">
         <is>
-          <t xml:space="preserve">Otros Delitos Contra Ley De Propiedad Industrial.</t>
+          <t xml:space="preserve">Otros Delitos Contra Las Personas</t>
         </is>
       </c>
       <c r="B104" s="65">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c t="inlineStr" r="A105">
         <is>
-          <t xml:space="preserve">Otros Delitos De La Ley 20.000.</t>
+          <t xml:space="preserve">Otros Delitos Contra Ley De Propiedad Industrial.</t>
         </is>
       </c>
       <c r="B105" s="65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106">
       <c t="inlineStr" r="A106">
         <is>
-          <t xml:space="preserve">Otros Delitos Ley General De Bancos.</t>
+          <t xml:space="preserve">Otros Delitos De La Ley 20.000.</t>
         </is>
       </c>
       <c r="B106" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
       <c t="inlineStr" r="A107">
         <is>
-          <t xml:space="preserve">Otros Estragos.</t>
+          <t xml:space="preserve">Otros Delitos Ley General De Bancos.</t>
         </is>
       </c>
       <c r="B107" s="65">
@@ -1277,17 +1277,17 @@
     <row r="108">
       <c t="inlineStr" r="A108">
         <is>
-          <t xml:space="preserve">Otros Hechos Que No Constituyan Delito: Agrup.1008,1009,1011</t>
+          <t xml:space="preserve">Otros Estragos.</t>
         </is>
       </c>
       <c r="B108" s="65">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c t="inlineStr" r="A109">
         <is>
-          <t xml:space="preserve">Portar Elemento Conocidamente Destinados Cometer Delito Robo</t>
+          <t xml:space="preserve">Otros Hechos Que No Constituyan Delito: Agrup.1008,1009,1011</t>
         </is>
       </c>
       <c r="B109" s="65">
@@ -1297,27 +1297,27 @@
     <row r="110">
       <c t="inlineStr" r="A110">
         <is>
-          <t xml:space="preserve">Porte De Arma Cortante O Punzante (288 Bis).</t>
+          <t xml:space="preserve">Portar Elemento Conocidamente Destinados Cometer Delito Robo</t>
         </is>
       </c>
       <c r="B110" s="65">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111">
       <c t="inlineStr" r="A111">
         <is>
-          <t xml:space="preserve">Porte De Arma Prohibida (Art. 14 Inc. 1°)</t>
+          <t xml:space="preserve">Porte De Arma Cortante O Punzante (288 Bis).</t>
         </is>
       </c>
       <c r="B111" s="65">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112">
       <c t="inlineStr" r="A112">
         <is>
-          <t xml:space="preserve">Porte Ilegal De Arma De Fuego, Municiones Y Otros Sujetas A.</t>
+          <t xml:space="preserve">Porte De Arma Prohibida (Art. 14 Inc. 1°)</t>
         </is>
       </c>
       <c r="B112" s="65">
@@ -1327,7 +1327,7 @@
     <row r="113">
       <c t="inlineStr" r="A113">
         <is>
-          <t xml:space="preserve">Posesión Tenencia O Porte De Mun Y Sust Químicas</t>
+          <t xml:space="preserve">Porte Ilegal De Arma De Fuego, Municiones Y Otros Sujetas A.</t>
         </is>
       </c>
       <c r="B113" s="65">
@@ -1337,27 +1337,27 @@
     <row r="114">
       <c t="inlineStr" r="A114">
         <is>
-          <t xml:space="preserve">Posesión, Tenencia O Porte De Armas Sujetas A Control</t>
+          <t xml:space="preserve">Posesión Tenencia O Porte De Mun Y Sust Químicas</t>
         </is>
       </c>
       <c r="B114" s="65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115">
       <c t="inlineStr" r="A115">
         <is>
-          <t xml:space="preserve">Presentacion De Peritos,Testigos O Interpretes Que Faltaren.</t>
+          <t xml:space="preserve">Posesión, Tenencia O Porte De Armas Sujetas A Control</t>
         </is>
       </c>
       <c r="B115" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
       <c t="inlineStr" r="A116">
         <is>
-          <t xml:space="preserve">Presunta Desgracia.</t>
+          <t xml:space="preserve">Presentacion De Peritos,Testigos O Interpretes Que Faltaren.</t>
         </is>
       </c>
       <c r="B116" s="65">
@@ -1367,37 +1367,37 @@
     <row r="117">
       <c t="inlineStr" r="A117">
         <is>
-          <t xml:space="preserve">Prevaricacion Judicial Y Administrativa Art. 223 Al 229.</t>
+          <t xml:space="preserve">Presunta Desgracia.</t>
         </is>
       </c>
       <c r="B117" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c t="inlineStr" r="A118">
         <is>
-          <t xml:space="preserve">Propagar Contagio A Sabiendas</t>
+          <t xml:space="preserve">Prevaricacion Judicial Y Administrativa Art. 223 Al 229.</t>
         </is>
       </c>
       <c r="B118" s="65">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
       <c t="inlineStr" r="A119">
         <is>
-          <t xml:space="preserve">Quebrantamiento.</t>
+          <t xml:space="preserve">Propagar Contagio A Sabiendas</t>
         </is>
       </c>
       <c r="B119" s="65">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120">
       <c t="inlineStr" r="A120">
         <is>
-          <t xml:space="preserve">Receptacion Cometida Por Persona Jurídica Art. 456 Bis A</t>
+          <t xml:space="preserve">Quebrantamiento.</t>
         </is>
       </c>
       <c r="B120" s="65">
@@ -1407,127 +1407,127 @@
     <row r="121">
       <c t="inlineStr" r="A121">
         <is>
-          <t xml:space="preserve">Receptacion. Art. 456 Bis A.</t>
+          <t xml:space="preserve">Receptacion Cometida Por Persona Jurídica Art. 456 Bis A</t>
         </is>
       </c>
       <c r="B121" s="65">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c t="inlineStr" r="A122">
         <is>
-          <t xml:space="preserve">Receptación De Vehículos Motorizados</t>
+          <t xml:space="preserve">Receptacion. Art. 456 Bis A.</t>
         </is>
       </c>
       <c r="B122" s="65">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123">
       <c t="inlineStr" r="A123">
         <is>
-          <t xml:space="preserve">Riña Pública (496 Nº 10 Código Penal).</t>
+          <t xml:space="preserve">Receptación De Vehículos Motorizados</t>
         </is>
       </c>
       <c r="B123" s="65">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124">
       <c t="inlineStr" r="A124">
         <is>
-          <t xml:space="preserve">Robo Con Intimidacion.</t>
+          <t xml:space="preserve">Riña Pública (496 Nº 10 Código Penal).</t>
         </is>
       </c>
       <c r="B124" s="65">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125">
       <c t="inlineStr" r="A125">
         <is>
-          <t xml:space="preserve">Robo Con Violencia, Intimidación De Vehículo Motorizado</t>
+          <t xml:space="preserve">Robo Con Intimidacion.</t>
         </is>
       </c>
       <c r="B125" s="65">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="126">
       <c t="inlineStr" r="A126">
         <is>
-          <t xml:space="preserve">Robo Con Violencia. Art.436 Inc. 1º 433, 438, 439.</t>
+          <t xml:space="preserve">Robo Con Violencia, Intimidación De Vehículo Motorizado</t>
         </is>
       </c>
       <c r="B126" s="65">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c t="inlineStr" r="A127">
         <is>
-          <t xml:space="preserve">Robo En Bienes Nacionales De Uso Publico O Sitiosno Destin.</t>
+          <t xml:space="preserve">Robo Con Violencia. Art.436 Inc. 1º 433, 438, 439.</t>
         </is>
       </c>
       <c r="B127" s="65">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="128">
       <c t="inlineStr" r="A128">
         <is>
-          <t xml:space="preserve">Robo En Lugar Habitado O Destinado A La Habitacion.</t>
+          <t xml:space="preserve">Robo En Bienes Nacionales De Uso Publico O Sitiosno Destin.</t>
         </is>
       </c>
       <c r="B128" s="65">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129">
       <c t="inlineStr" r="A129">
         <is>
-          <t xml:space="preserve">Robo En Lugar No Habitado.</t>
+          <t xml:space="preserve">Robo En Lugar Habitado O Destinado A La Habitacion.</t>
         </is>
       </c>
       <c r="B129" s="65">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130">
       <c t="inlineStr" r="A130">
         <is>
-          <t xml:space="preserve">Robo Por Sorpresa.</t>
+          <t xml:space="preserve">Robo En Lugar No Habitado.</t>
         </is>
       </c>
       <c r="B130" s="65">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131">
       <c t="inlineStr" r="A131">
         <is>
-          <t xml:space="preserve">Sabotaje Informático.</t>
+          <t xml:space="preserve">Robo Por Sorpresa.</t>
         </is>
       </c>
       <c r="B131" s="65">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="132">
       <c t="inlineStr" r="A132">
         <is>
-          <t xml:space="preserve">Secuestro</t>
+          <t xml:space="preserve">Sabotaje Informático.</t>
         </is>
       </c>
       <c r="B132" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133">
       <c t="inlineStr" r="A133">
         <is>
-          <t xml:space="preserve">Sustraccion De Menores.</t>
+          <t xml:space="preserve">Secuestro</t>
         </is>
       </c>
       <c r="B133" s="65">
@@ -1537,97 +1537,97 @@
     <row r="134">
       <c t="inlineStr" r="A134">
         <is>
-          <t xml:space="preserve">Torturas Cometidas P/Funcionarios Publ.(Art. 150, A Inc 1°)</t>
+          <t xml:space="preserve">Sustraccion De Menores.</t>
         </is>
       </c>
       <c r="B134" s="65">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c t="inlineStr" r="A135">
         <is>
-          <t xml:space="preserve">Torturas P/Particulares Agentes D/Estado (Art.150 A,Inc. 20)</t>
+          <t xml:space="preserve">Torturas Cometidas P/Funcionarios Publ.(Art. 150, A Inc 1°)</t>
         </is>
       </c>
       <c r="B135" s="65">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136">
       <c t="inlineStr" r="A136">
         <is>
-          <t xml:space="preserve">Trafico De Influencias.</t>
+          <t xml:space="preserve">Torturas P/Particulares Agentes D/Estado (Art.150 A,Inc. 20)</t>
         </is>
       </c>
       <c r="B136" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c t="inlineStr" r="A137">
         <is>
-          <t xml:space="preserve">Trafico De Pequeñas Cantidades (Art. 4).</t>
+          <t xml:space="preserve">Trafico De Influencias.</t>
         </is>
       </c>
       <c r="B137" s="65">
-        <v>44</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
       <c t="inlineStr" r="A138">
         <is>
-          <t xml:space="preserve">Trafico Ilícito De Drogas (Art. 3).</t>
+          <t xml:space="preserve">Trafico De Pequeñas Cantidades (Art. 4).</t>
         </is>
       </c>
       <c r="B138" s="65">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="139">
       <c t="inlineStr" r="A139">
         <is>
-          <t xml:space="preserve">Tratos Degradantes A Personas Vulnerables. Art. 403 Ter.</t>
+          <t xml:space="preserve">Trafico Ilícito De Drogas (Art. 3).</t>
         </is>
       </c>
       <c r="B139" s="65">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140">
       <c t="inlineStr" r="A140">
         <is>
-          <t xml:space="preserve">Uso Fraudulento De Tarjetas O Medios De Pago. Ley 20.009</t>
+          <t xml:space="preserve">Tratos Degradantes A Personas Vulnerables. Art. 403 Ter.</t>
         </is>
       </c>
       <c r="B140" s="65">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c t="inlineStr" r="A141">
         <is>
-          <t xml:space="preserve">Usurpacion De Nombre.</t>
+          <t xml:space="preserve">Uso Fraudulento De Tarjetas O Medios De Pago. Ley 20.009</t>
         </is>
       </c>
       <c r="B141" s="65">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142">
       <c t="inlineStr" r="A142">
         <is>
-          <t xml:space="preserve">Usurpacion No Violenta (Art. 458 Codigo Penal).</t>
+          <t xml:space="preserve">Usurpacion De Nombre.</t>
         </is>
       </c>
       <c r="B142" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143">
       <c t="inlineStr" r="A143">
         <is>
-          <t xml:space="preserve">Usurpacion Violenta.</t>
+          <t xml:space="preserve">Usurpacion No Violenta (Art. 458 Codigo Penal).</t>
         </is>
       </c>
       <c r="B143" s="65">
@@ -1637,7 +1637,7 @@
     <row r="144">
       <c t="inlineStr" r="A144">
         <is>
-          <t xml:space="preserve">Veedor/Liquidador Realice Conducta Señalada Art.464Y 464 Bis</t>
+          <t xml:space="preserve">Usurpacion Violenta.</t>
         </is>
       </c>
       <c r="B144" s="65">
@@ -1647,27 +1647,27 @@
     <row r="145">
       <c t="inlineStr" r="A145">
         <is>
-          <t xml:space="preserve">Violacion  De Morada.</t>
+          <t xml:space="preserve">Veedor/Liquidador Realice Conducta Señalada Art.464Y 464 Bis</t>
         </is>
       </c>
       <c r="B145" s="65">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c t="inlineStr" r="A146">
         <is>
-          <t xml:space="preserve">Violacion De Menor De 14 Años.</t>
+          <t xml:space="preserve">Violacion  De Morada.</t>
         </is>
       </c>
       <c r="B146" s="65">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147">
       <c t="inlineStr" r="A147">
         <is>
-          <t xml:space="preserve">Violacion De Secretos.</t>
+          <t xml:space="preserve">Violacion De Menor De 14 Años.</t>
         </is>
       </c>
       <c r="B147" s="65">
@@ -1677,10 +1677,20 @@
     <row r="148">
       <c t="inlineStr" r="A148">
         <is>
+          <t xml:space="preserve">Violacion De Secretos.</t>
+        </is>
+      </c>
+      <c r="B148" s="65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c t="inlineStr" r="A149">
+        <is>
           <t xml:space="preserve">Violación De Mayor De 14 Años.</t>
         </is>
       </c>
-      <c r="B148" s="65">
+      <c r="B149" s="65">
         <v>1</v>
       </c>
     </row>
